--- a/config/excel/Excel_Sheet.xlsx
+++ b/config/excel/Excel_Sheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AKASH KESARWANI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MANAS KESARWANI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABHAY KESARWANI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SUJAL KESARWANI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
